--- a/test.xlsx
+++ b/test.xlsx
@@ -345,7 +345,7 @@
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
